--- a/Filtered_Bypass.xlsx
+++ b/Filtered_Bypass.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,43 +491,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23:15:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Clearing Accounts</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9777.559999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9777.559999999999</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>bypass</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>User_19</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Junior Accountant</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>198</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B3" s="2" t="n">
         <v>45055</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>13:20:00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Suspense Accounts</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>5587.01</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>5587.01</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>system change</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>User_16</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Finance Manager</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Authorized</t>
         </is>
